--- a/classification/droptc/message/modern-bert/unfreeze/67351593/prediction.xlsx
+++ b/classification/droptc/message/modern-bert/unfreeze/67351593/prediction.xlsx
@@ -505,12 +505,12 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>[1, 0, 0, 0, 0, 0, 0]</t>
+          <t>[1, 0, 0, 1, 0, 0, 0]</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>['Normal']</t>
+          <t>['Normal', 'ParamViolation']</t>
         </is>
       </c>
     </row>
@@ -721,12 +721,12 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>[1, 0, 1, 0, 0, 0, 0]</t>
+          <t>[1, 0, 1, 0, 1, 0, 0]</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>['Normal', 'HardwareFault']</t>
+          <t>['Normal', 'HardwareFault', 'RegulationViolation']</t>
         </is>
       </c>
     </row>
@@ -802,12 +802,12 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>[0, 0, 0, 0, 0, 0, 0]</t>
+          <t>[1, 0, 0, 0, 0, 0, 0]</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['Normal']</t>
         </is>
       </c>
     </row>
@@ -856,12 +856,12 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>[1, 0, 0, 0, 0, 0, 0]</t>
+          <t>[1, 0, 0, 0, 1, 0, 0]</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>['Normal']</t>
+          <t>['Normal', 'RegulationViolation']</t>
         </is>
       </c>
     </row>
@@ -910,12 +910,12 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>[0, 0, 0, 0, 0, 0, 0]</t>
+          <t>[1, 0, 0, 0, 0, 0, 0]</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['Normal']</t>
         </is>
       </c>
     </row>
@@ -1288,12 +1288,12 @@
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>[1, 0, 0, 0, 0, 0, 1]</t>
+          <t>[0, 0, 0, 0, 0, 0, 1]</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>['Normal', 'SoftwareFault']</t>
+          <t>['SoftwareFault']</t>
         </is>
       </c>
     </row>
@@ -1396,12 +1396,12 @@
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>[1, 1, 1, 0, 0, 0, 0]</t>
+          <t>[1, 0, 1, 0, 0, 0, 0]</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>['Normal', 'SurroundingEnvironment', 'HardwareFault']</t>
+          <t>['Normal', 'HardwareFault']</t>
         </is>
       </c>
     </row>
@@ -1585,12 +1585,12 @@
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>[1, 0, 1, 0, 0, 0, 0]</t>
+          <t>[1, 0, 0, 0, 0, 0, 0]</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>['Normal', 'HardwareFault']</t>
+          <t>['Normal']</t>
         </is>
       </c>
     </row>
@@ -1639,12 +1639,12 @@
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>[1, 0, 1, 0, 0, 0, 0]</t>
+          <t>[1, 0, 0, 0, 0, 0, 0]</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>['Normal', 'HardwareFault']</t>
+          <t>['Normal']</t>
         </is>
       </c>
     </row>
@@ -1882,12 +1882,12 @@
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>[0, 0, 1, 0, 0, 0, 0]</t>
+          <t>[0, 0, 0, 0, 0, 1, 0]</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>['HardwareFault']</t>
+          <t>['CommunicationIssue']</t>
         </is>
       </c>
     </row>
@@ -1990,12 +1990,12 @@
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>[1, 0, 0, 0, 0, 0, 0]</t>
+          <t>[1, 0, 0, 1, 0, 0, 0]</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>['Normal']</t>
+          <t>['Normal', 'ParamViolation']</t>
         </is>
       </c>
     </row>
@@ -2071,12 +2071,12 @@
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>[1, 0, 0, 0, 0, 0, 0]</t>
+          <t>[0, 0, 0, 0, 0, 0, 1]</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>['Normal']</t>
+          <t>['SoftwareFault']</t>
         </is>
       </c>
     </row>
@@ -2260,12 +2260,12 @@
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>[1, 0, 0, 0, 0, 0, 0]</t>
+          <t>[1, 0, 0, 1, 0, 0, 0]</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>['Normal']</t>
+          <t>['Normal', 'ParamViolation']</t>
         </is>
       </c>
     </row>
@@ -2341,12 +2341,12 @@
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>[1, 0, 0, 0, 0, 0, 0]</t>
+          <t>[1, 0, 0, 1, 0, 0, 0]</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>['Normal']</t>
+          <t>['Normal', 'ParamViolation']</t>
         </is>
       </c>
     </row>
@@ -2611,12 +2611,12 @@
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>[1, 0, 0, 0, 0, 0, 0]</t>
+          <t>[1, 0, 1, 0, 0, 0, 0]</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>['Normal']</t>
+          <t>['Normal', 'HardwareFault']</t>
         </is>
       </c>
     </row>
@@ -2665,12 +2665,12 @@
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>[1, 1, 0, 0, 0, 0, 0]</t>
+          <t>[1, 0, 0, 0, 0, 0, 0]</t>
         </is>
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>['Normal', 'SurroundingEnvironment']</t>
+          <t>['Normal']</t>
         </is>
       </c>
     </row>
@@ -2692,12 +2692,12 @@
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>[1, 0, 0, 0, 0, 0, 0]</t>
+          <t>[1, 0, 0, 1, 0, 0, 0]</t>
         </is>
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>['Normal']</t>
+          <t>['Normal', 'ParamViolation']</t>
         </is>
       </c>
     </row>
@@ -3043,12 +3043,12 @@
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>[0, 0, 0, 0, 0, 0, 0]</t>
+          <t>[0, 0, 0, 0, 0, 0, 1]</t>
         </is>
       </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['SoftwareFault']</t>
         </is>
       </c>
     </row>
@@ -3367,12 +3367,12 @@
       </c>
       <c r="D109" t="inlineStr">
         <is>
-          <t>[1, 1, 0, 0, 0, 0, 0]</t>
+          <t>[1, 1, 0, 0, 0, 0, 1]</t>
         </is>
       </c>
       <c r="E109" t="inlineStr">
         <is>
-          <t>['Normal', 'SurroundingEnvironment']</t>
+          <t>['Normal', 'SurroundingEnvironment', 'SoftwareFault']</t>
         </is>
       </c>
     </row>

--- a/classification/droptc/message/modern-bert/unfreeze/67351593/prediction.xlsx
+++ b/classification/droptc/message/modern-bert/unfreeze/67351593/prediction.xlsx
@@ -721,12 +721,12 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>[1, 0, 1, 0, 1, 0, 0]</t>
+          <t>[1, 0, 1, 0, 0, 0, 0]</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>['Normal', 'HardwareFault', 'RegulationViolation']</t>
+          <t>['Normal', 'HardwareFault']</t>
         </is>
       </c>
     </row>
@@ -829,12 +829,12 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>[0, 0, 0, 0, 0, 0, 0]</t>
+          <t>[1, 0, 0, 0, 0, 0, 0]</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['Normal']</t>
         </is>
       </c>
     </row>
@@ -1261,12 +1261,12 @@
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>[0, 0, 0, 0, 0, 0, 1]</t>
+          <t>[1, 0, 0, 0, 0, 0, 1]</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>['SoftwareFault']</t>
+          <t>['Normal', 'SoftwareFault']</t>
         </is>
       </c>
     </row>
@@ -1288,12 +1288,12 @@
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>[0, 0, 0, 0, 0, 0, 1]</t>
+          <t>[1, 0, 0, 0, 0, 0, 1]</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>['SoftwareFault']</t>
+          <t>['Normal', 'SoftwareFault']</t>
         </is>
       </c>
     </row>
@@ -1396,12 +1396,12 @@
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>[1, 0, 1, 0, 0, 0, 0]</t>
+          <t>[1, 1, 0, 0, 0, 0, 0]</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>['Normal', 'HardwareFault']</t>
+          <t>['Normal', 'SurroundingEnvironment']</t>
         </is>
       </c>
     </row>
@@ -1585,12 +1585,12 @@
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>[1, 0, 0, 0, 0, 0, 0]</t>
+          <t>[1, 0, 1, 0, 0, 0, 0]</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>['Normal']</t>
+          <t>['Normal', 'HardwareFault']</t>
         </is>
       </c>
     </row>
@@ -1639,12 +1639,12 @@
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>[1, 0, 0, 0, 0, 0, 0]</t>
+          <t>[1, 0, 1, 0, 0, 0, 0]</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>['Normal']</t>
+          <t>['Normal', 'HardwareFault']</t>
         </is>
       </c>
     </row>
@@ -1882,12 +1882,12 @@
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>[0, 0, 0, 0, 0, 1, 0]</t>
+          <t>[1, 0, 0, 0, 0, 0, 0]</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>['CommunicationIssue']</t>
+          <t>['Normal']</t>
         </is>
       </c>
     </row>
@@ -1990,12 +1990,12 @@
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>[1, 0, 0, 1, 0, 0, 0]</t>
+          <t>[1, 0, 0, 0, 0, 0, 0]</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>['Normal', 'ParamViolation']</t>
+          <t>['Normal']</t>
         </is>
       </c>
     </row>
@@ -2071,12 +2071,12 @@
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>[0, 0, 0, 0, 0, 0, 1]</t>
+          <t>[1, 0, 1, 0, 0, 0, 0]</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>['SoftwareFault']</t>
+          <t>['Normal', 'HardwareFault']</t>
         </is>
       </c>
     </row>
@@ -2260,12 +2260,12 @@
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>[1, 0, 0, 1, 0, 0, 0]</t>
+          <t>[1, 0, 0, 0, 0, 0, 0]</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>['Normal', 'ParamViolation']</t>
+          <t>['Normal']</t>
         </is>
       </c>
     </row>
@@ -2611,12 +2611,12 @@
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>[1, 0, 1, 0, 0, 0, 0]</t>
+          <t>[1, 0, 0, 0, 0, 0, 0]</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>['Normal', 'HardwareFault']</t>
+          <t>['Normal']</t>
         </is>
       </c>
     </row>
@@ -2692,12 +2692,12 @@
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>[1, 0, 0, 1, 0, 0, 0]</t>
+          <t>[1, 0, 0, 0, 0, 0, 0]</t>
         </is>
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>['Normal', 'ParamViolation']</t>
+          <t>['Normal']</t>
         </is>
       </c>
     </row>
@@ -2908,12 +2908,12 @@
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>[1, 0, 0, 0, 0, 0, 1]</t>
+          <t>[1, 0, 1, 0, 0, 0, 1]</t>
         </is>
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>['Normal', 'SoftwareFault']</t>
+          <t>['Normal', 'HardwareFault', 'SoftwareFault']</t>
         </is>
       </c>
     </row>
@@ -3043,12 +3043,12 @@
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>[0, 0, 0, 0, 0, 0, 1]</t>
+          <t>[1, 0, 0, 0, 0, 0, 0]</t>
         </is>
       </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t>['SoftwareFault']</t>
+          <t>['Normal']</t>
         </is>
       </c>
     </row>
@@ -3367,12 +3367,12 @@
       </c>
       <c r="D109" t="inlineStr">
         <is>
-          <t>[1, 1, 0, 0, 0, 0, 1]</t>
+          <t>[1, 1, 0, 0, 0, 0, 0]</t>
         </is>
       </c>
       <c r="E109" t="inlineStr">
         <is>
-          <t>['Normal', 'SurroundingEnvironment', 'SoftwareFault']</t>
+          <t>['Normal', 'SurroundingEnvironment']</t>
         </is>
       </c>
     </row>
@@ -3556,12 +3556,12 @@
       </c>
       <c r="D116" t="inlineStr">
         <is>
-          <t>[1, 0, 0, 0, 0, 0, 0]</t>
+          <t>[1, 0, 0, 0, 0, 0, 1]</t>
         </is>
       </c>
       <c r="E116" t="inlineStr">
         <is>
-          <t>['Normal']</t>
+          <t>['Normal', 'SoftwareFault']</t>
         </is>
       </c>
     </row>
